--- a/Documentation/ProjectDocumentation/Website_template.xlsx
+++ b/Documentation/ProjectDocumentation/Website_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -125,33 +125,30 @@
     <t>abgeschlossen</t>
   </si>
   <si>
-    <t>logo.png,interface.png,handy_ansicht.png</t>
-  </si>
-  <si>
-    <t>Das Ziel von Archivist ist, ein einfach zu verwendendes digitales Notenarchiv für Musikvereine bereitzustellen. Dazu kann der Archivar eine Datenbank von Musikstücken verwalten und ent-sprechende Noten abspeichern. Dieser Ansatz ermöglicht eine einfache Übersicht über Musik-stücke, eine Suchfunktion für das Auffinden von Stücken sowie das einfache Ausdrucken von Noten.</t>
-  </si>
-  <si>
-    <t>Fuchs Boris, Paul Schmutz</t>
-  </si>
-  <si>
     <t>FH Hagenberg</t>
   </si>
   <si>
-    <t>FH-Prof. DI Stephan Selinger / Breitenfellner Marcel, BSc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nachdem viele Musikvereine keine digitale Absicherung ihrer Musikstücke besitzen, ist die Verwaltung eines Notenarchivs mit viel Aufwand verbunden, vor allem, wenn das Archiv aus einer Vielzahl von Musikstücken besteht.
-Aus diesem Grund bietet Archivist ein digitales Archiv für Musikstücken an, um die Organisation dieser einfach zu halten. Durch die Verwendung von Archivist kann nicht nur eine Liste von Musikstücken mit Archivnummern geführt werden, sondern auch das Speichern und Kategorisieren in von Noten selbst in digitaler Form ist möglich.
-Eine simple aber sehr hilfreiche Suchfunktion ermöglicht es dem Benutzer, ein bestimmtes Musikstück oder mehrere Musikstücke bezüglich Musiktitel, Komponist, Genre oder Archivnummer sehr effizient aufzufinden. Einige vordefinierte Filter für das Sortieren von Einträgen anhand bestimmter Kriterien unterstützen die Suchfunktion, um noch schneller Suchergebnisse zu erhalten.
-Weiters können jederzeit bereits existente Daten bearbeitet sowie neue Einträge für Musikstücke erstellt werden. Die Möglichkeit, Einzelstimmen für die Musiknoten zu speichern, erleichtert die Organisation der Noten für die einzelnen Musiker erheblich. Musiknoten werden dabei als PDF-Datei für jede Einzelstimme abgespeichert. Wird beispielsweise eine zweite Trompetenstimme für ein bestimmtes Stück benötigt, so kann die dazugehörige PDF-Datei des Musikstücks rasch ausgedruckt bzw. auch auf einem Tablet angezeigt werden.
-Zusammenfassend bietet das moderne Konzept von Archivist für Musikvereine ein nützliches Werkzeug, um deren Musikstücke in einer einfachen aber effizienten Art zu digitalisieren, was eine Vielzahl an Vorteilen bietet, um die ansonsten aufwändige Organisation eines Notenarchivs unkompliziert und für jedermann verwendbar zu gestalten.
-</t>
-  </si>
-  <si>
     <t>3D-Scanner</t>
   </si>
   <si>
     <t>Wintersemester 2017/18</t>
+  </si>
+  <si>
+    <t>Das 3D-Scanner Schienensystem ermöglicht es, in kurzer Zeit Köpfe von Personen sowie Objekte mithilfe eines 3D-Hand-Scanners in hoher Qualität einzuscannen. Scannen per Hand oder mit Drehsessel stellten sich als zu fehleranfällig und ungenau heraus, weswegen der Bedarf für dieses Projekt entstand. Ziel ist es, mit geringstem Kostenaufwand 3D-Modelle zu scannen, welche anschließend für den 3D-Druck oder Weiterverarbeitung mit 3D-Software verwendet werden.</t>
+  </si>
+  <si>
+    <t>DI Dr. Erik Sonnleitner / Breitenfellner Marcel, BSc</t>
+  </si>
+  <si>
+    <t>Das Ziel dieses Projekts ist, mithilfe eines speziellen 3D Hand-Scanners auf einer Vorrichtung Köpfe von Personen einfach, in kurzer Zeit in optimaler Qualität einzuscannen. Der Bau dieser Vorrichtung wurde von einem Professor der FH Hagenberg (Prof. Dr. Sonnleitner) in Auftrag gegeben. Das Kernkriterium ist, dass beim Scan-Prozess der 3D Hand-Scanner rund um eine Person bewegt wird, um sie als 3D Modell zu erfassen. Das resultierende 3D Modell wird an-schließend zur Weiterbearbeitung sowie zum 3D Druck von Büsten verwendet.
+Als 3D Hand-Scanner dient ein Modell des Unternehmens „Sense“. Ursprünglich wurden Perso-nen (Köpfe) eingescannt, indem diese sich auf einen Drehsessel setzten und mit den Beinen weiterdrehten, während eine weitere Person den Sense Scanner auf diese Person richtete. Die-se Vorgehensweise stellte sich jedoch als sehr fehleranfällig und aufwändig dar. Weiters erwies sich das Scannen von kleinen und mittelgroßen Objekten auch mit ruhiger Hand als sehr schwierig, wodurch damit kaum ein Scan gelang. Daraus entstand schließlich die Notwendigkeit nach einer Vorrichtung für den Hand-Scanner, welche mit möglichst geringen Kosten für den Erbau bestmögliche Ergebnisse liefern soll.
+Zusammenfassend ermöglicht damit das Projekt 3D Scanner den Scan von Personen sowie von Objekten mit geringem Aufwand in hoher Qualität, was eine Grundlage für die Weiterverar-beitung mit 3D Programmen und den 3D Druck bietet.</t>
+  </si>
+  <si>
+    <t>sense_scanner_512.png,IMG_20180130_140326.jpg</t>
+  </si>
+  <si>
+    <t>Boris Fuchs, Paul Schmutz</t>
   </si>
 </sst>
 </file>
@@ -738,34 +735,34 @@
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>39</v>
